--- a/output/ejecucion_10/gridsearch_results/gs_ca_Regression Forest_nro.xlsx
+++ b/output/ejecucion_10/gridsearch_results/gs_ca_Regression Forest_nro.xlsx
@@ -501,16 +501,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>87.30812964439392</v>
+        <v>86.35672650337219</v>
       </c>
       <c r="C2">
-        <v>0.9427230183031284</v>
+        <v>0.470646343465841</v>
       </c>
       <c r="D2">
-        <v>0.1202587604522705</v>
+        <v>0.11483473777771</v>
       </c>
       <c r="E2">
-        <v>0.003694809778801448</v>
+        <v>0.005421296424693653</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -551,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>170.829852437973</v>
+        <v>169.7449359893799</v>
       </c>
       <c r="C3">
-        <v>0.9353178122743309</v>
+        <v>0.8388336120643792</v>
       </c>
       <c r="D3">
-        <v>0.1577276229858398</v>
+        <v>0.1491869926452637</v>
       </c>
       <c r="E3">
-        <v>0.003924134719615916</v>
+        <v>0.002355883065704677</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>0.6974939819828953</v>
+        <v>0.6974939819828951</v>
       </c>
       <c r="J3">
         <v>0.6566910764009608</v>
@@ -590,7 +590,7 @@
         <v>0.6651254779507053</v>
       </c>
       <c r="O3">
-        <v>0.01953553871635488</v>
+        <v>0.01953553871635484</v>
       </c>
       <c r="P3">
         <v>8</v>
@@ -601,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>333.5825450897217</v>
+        <v>340.0340082645416</v>
       </c>
       <c r="C4">
-        <v>3.253824335018858</v>
+        <v>4.814792754397581</v>
       </c>
       <c r="D4">
-        <v>0.2309794902801514</v>
+        <v>0.2296770095825195</v>
       </c>
       <c r="E4">
-        <v>0.006545313962558834</v>
+        <v>0.0073059644274049</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -625,7 +625,7 @@
         <v>0.6987540668226828</v>
       </c>
       <c r="J4">
-        <v>0.6632401260000188</v>
+        <v>0.6632401260000187</v>
       </c>
       <c r="K4">
         <v>0.6726761360250253</v>
@@ -651,16 +651,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89.18024334907531</v>
+        <v>91.64530591964721</v>
       </c>
       <c r="C5">
-        <v>0.7477663692170512</v>
+        <v>0.5685271520755431</v>
       </c>
       <c r="D5">
-        <v>0.1154441833496094</v>
+        <v>0.1208735942840576</v>
       </c>
       <c r="E5">
-        <v>0.001550452448438024</v>
+        <v>0.008689865635546665</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -672,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="I5">
-        <v>0.7041245473951092</v>
+        <v>0.7041245473951093</v>
       </c>
       <c r="J5">
         <v>0.663557514516157</v>
@@ -690,7 +690,7 @@
         <v>0.6708113312751682</v>
       </c>
       <c r="O5">
-        <v>0.02084979944968444</v>
+        <v>0.02084979944968448</v>
       </c>
       <c r="P5">
         <v>6</v>
@@ -701,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>177.0963997840881</v>
+        <v>178.5161867141724</v>
       </c>
       <c r="C6">
-        <v>0.9785727603019118</v>
+        <v>1.288155821173994</v>
       </c>
       <c r="D6">
-        <v>0.1550670623779297</v>
+        <v>0.153418493270874</v>
       </c>
       <c r="E6">
-        <v>0.004408947198853913</v>
+        <v>0.003978736138292127</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>348.5030301094055</v>
+        <v>354.6092665195465</v>
       </c>
       <c r="C7">
-        <v>2.240734638769559</v>
+        <v>2.584349395363247</v>
       </c>
       <c r="D7">
-        <v>0.2278662204742432</v>
+        <v>0.2240584373474121</v>
       </c>
       <c r="E7">
-        <v>0.007044822974697345</v>
+        <v>0.004650396020493146</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -775,13 +775,13 @@
         <v>0.7048995683400147</v>
       </c>
       <c r="J7">
-        <v>0.6696019666004257</v>
+        <v>0.6696019666004256</v>
       </c>
       <c r="K7">
         <v>0.6797273910529178</v>
       </c>
       <c r="L7">
-        <v>0.6578595928041738</v>
+        <v>0.6578595928041739</v>
       </c>
       <c r="M7">
         <v>0.6523731581102845</v>
@@ -790,7 +790,7 @@
         <v>0.6728923353815632</v>
       </c>
       <c r="O7">
-        <v>0.01859584609363714</v>
+        <v>0.01859584609363712</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -801,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>90.64974179267884</v>
+        <v>90.90628962516784</v>
       </c>
       <c r="C8">
-        <v>1.154788536852556</v>
+        <v>0.6558118641859957</v>
       </c>
       <c r="D8">
-        <v>0.1199794769287109</v>
+        <v>0.1171491146087646</v>
       </c>
       <c r="E8">
-        <v>0.002746699431678584</v>
+        <v>0.003192265070680433</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -822,7 +822,7 @@
         <v>21</v>
       </c>
       <c r="I8">
-        <v>0.7041245473951092</v>
+        <v>0.7041245473951093</v>
       </c>
       <c r="J8">
         <v>0.663557514516157</v>
@@ -840,7 +840,7 @@
         <v>0.6708255355816476</v>
       </c>
       <c r="O8">
-        <v>0.0208325613129686</v>
+        <v>0.02083256131296864</v>
       </c>
       <c r="P8">
         <v>5</v>
@@ -851,16 +851,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>176.5041904449463</v>
+        <v>180.339049577713</v>
       </c>
       <c r="C9">
-        <v>0.7942399450811062</v>
+        <v>3.971481332229547</v>
       </c>
       <c r="D9">
-        <v>0.1589157104492188</v>
+        <v>0.1615742683410644</v>
       </c>
       <c r="E9">
-        <v>0.00508731076172979</v>
+        <v>0.008624925604593008</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -881,7 +881,7 @@
         <v>0.6824974147385476</v>
       </c>
       <c r="L9">
-        <v>0.6604328585057418</v>
+        <v>0.6604328585057417</v>
       </c>
       <c r="M9">
         <v>0.6478660578362478</v>
@@ -890,7 +890,7 @@
         <v>0.6717856389672763</v>
       </c>
       <c r="O9">
-        <v>0.01950867259322965</v>
+        <v>0.01950867259322966</v>
       </c>
       <c r="P9">
         <v>4</v>
@@ -901,16 +901,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>352.6184048652649</v>
+        <v>362.9139940261841</v>
       </c>
       <c r="C10">
-        <v>2.493353155058144</v>
+        <v>1.503974652010978</v>
       </c>
       <c r="D10">
-        <v>0.2396316528320312</v>
+        <v>0.2271968364715576</v>
       </c>
       <c r="E10">
-        <v>0.01620003605781676</v>
+        <v>0.006793044114134266</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -925,13 +925,13 @@
         <v>0.7049157218295714</v>
       </c>
       <c r="J10">
-        <v>0.6696308997270488</v>
+        <v>0.6696308997270487</v>
       </c>
       <c r="K10">
         <v>0.6797354553805943</v>
       </c>
       <c r="L10">
-        <v>0.6578502084707897</v>
+        <v>0.6578502084707896</v>
       </c>
       <c r="M10">
         <v>0.6524040044521319</v>
@@ -940,7 +940,7 @@
         <v>0.6729072579720272</v>
       </c>
       <c r="O10">
-        <v>0.01859569147035588</v>
+        <v>0.0185956914703559</v>
       </c>
       <c r="P10">
         <v>1</v>
